--- a/biology/Microbiologie/Coccolithales/Coccolithales.xlsx
+++ b/biology/Microbiologie/Coccolithales/Coccolithales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Coccolithales sont un ordre d’algues de la classe des Prymnesiophyceae (coccolithophores).
 </t>
@@ -511,9 +523,11 @@
           <t>Liste de familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (21 juillet 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (21 juillet 2017) :
 famille des Calcidiscaceae J.R.Young &amp; P.W.Bown  
 famille des Calyptrosphaeraceae Boudreaux &amp; W.W.Hay   
 famille des Coccolithaceae Poche  
@@ -547,19 +561,21 @@
           <t>Liste des non-classés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (11 novembre 2021)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (11 novembre 2021) :
 famille Calcidiscaceae
 famille Coccolithaceae
 famille Hymenomonadaceae
 famille Pleurochrysidaceae
 genre Reticulosphaera
-Selon Paleobiology Database                   (11 novembre 2021)[4] :
+Selon Paleobiology Database                   (11 novembre 2021) :
 non-classé Coccolithaceae
 non-classé Hymenomonadaceae
 non-classé Pleurochrysidaceae
-Selon World Register of Marine Species                               (11 novembre 2021)[5] :
+Selon World Register of Marine Species                               (11 novembre 2021) :
 famille Calcidiscaceae
 famille Calyptrosphaeraceae Boudreaux &amp; Hay, 1969
 famille Coccolithaceae Poche, 1913
